--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/79_Yalova_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/79_Yalova_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11811F3F-D233-4AE2-BD92-C66D49B8D303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B1B1EF9-4441-4B5F-AEF4-846B93042172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{2936561B-578A-4FE2-B430-158F149A1D48}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{46DE3AF9-A7A9-4578-909B-24D42E5C7D11}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="151" r:id="rId1"/>
@@ -791,14 +791,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{082FAD57-68D6-4C89-89C9-54DD8F81195E}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{246BD7B4-D206-4073-A204-E379C1B64DD0}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{77F02E7D-256C-417E-AF2E-316ABA805E3C}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{28AA4A49-AD25-4B18-85E8-8A95543C825D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{9B327CB3-1B10-4F6D-9631-1BE724EE881A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{875D6E34-7C24-4978-9933-F544DE8AA544}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{B673FA41-3A46-437E-A407-8D9FB9E3C0F3}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{55EC74D8-7670-4230-A48C-06B5E7D11D2B}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{77E86844-FDDB-4396-81C3-B7A46CB73BF0}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{ED690DA4-3058-46F4-A12D-154AC09DED06}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{2C3FE195-134F-4D5B-9224-46DF7D2FBD61}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{671C0DB5-A396-403A-BA50-6B3C514D3CCD}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C1C30DFF-3A86-4766-9350-D01AF678F677}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{ACC4141D-0F27-4762-B707-865C2E615DCC}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{08622ED4-E54A-419A-B6B0-39284C0E75D0}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5620AA6F-2C69-4982-8AD8-9A127AECEC42}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1168,7 +1168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6659F985-FA1D-4933-AA8D-ABE9135BB204}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC041BB-49D7-4F53-A89E-50A59207907E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2429,7 +2429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0EB4D2-BCF0-41D4-90D6-D4B12CC89751}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5433948C-07B8-4558-9CD2-0AC5081D8517}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3692,7 +3692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102E083F-D47E-4ABE-828C-6B715A748D4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB8C446-A5B3-42AF-9C2E-F5E304556832}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4963,7 +4963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7D9C38-A7FA-4081-95B8-9F2EC56210EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7E65BA-03E4-4498-938B-F5E71B46D07B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6234,7 +6234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE9B3B1-AC4F-4E08-AEE8-B26BAFA9CC0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85AEFE8-170E-469B-A08C-9B862982324D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7491,7 +7491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FBAD86-E9E1-417E-8253-E02E7298F1FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1DE190-36B7-4A48-8E92-756FE79718FC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
